--- a/computer organization/hardwired/输出信号表.xlsx
+++ b/computer organization/hardwired/输出信号表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\HomeWork\computer organization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\HomeWork\computer organization\hardwired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785DDC2-142D-4152-8EF7-166CBCF16425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928572E-72CE-4EF1-BB97-8120DC53AD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6945" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12443" windowHeight="4568" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
   </bookViews>
   <sheets>
     <sheet name="输出信号一览" sheetId="1" r:id="rId1"/>
@@ -292,18 +292,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!ST</t>
-  </si>
-  <si>
     <t>SST</t>
   </si>
   <si>
     <t>W2&amp;!ST</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>W1&amp;!ST</t>
   </si>
   <si>
@@ -321,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右侧为扩展指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +340,18 @@
   </si>
   <si>
     <t>S[0101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!ST&amp;W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!ST&amp;W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST&amp;W1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,10 +853,10 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -895,7 +897,7 @@
         <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
         <v>40</v>
@@ -916,16 +918,16 @@
         <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
-        <v>80</v>
-      </c>
       <c r="U1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -933,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
         <v>63</v>
@@ -955,19 +957,19 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
@@ -978,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
         <v>61</v>
@@ -1019,16 +1021,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
         <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -1051,10 +1053,10 @@
         <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
@@ -1088,16 +1090,16 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s">
         <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -1113,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
         <v>63</v>
@@ -1133,7 +1135,7 @@
         <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
@@ -1144,7 +1146,7 @@
         <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
@@ -1158,10 +1160,10 @@
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
@@ -1174,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
@@ -1199,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
@@ -1265,10 +1267,10 @@
         <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
@@ -1292,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
@@ -1322,7 +1324,7 @@
         <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
@@ -1338,18 +1340,18 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
@@ -1357,7 +1359,7 @@
         <v>52</v>
       </c>
       <c r="N34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
@@ -1365,7 +1367,7 @@
         <v>53</v>
       </c>
       <c r="N35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
@@ -1373,7 +1375,7 @@
         <v>54</v>
       </c>
       <c r="N36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
@@ -1381,7 +1383,7 @@
         <v>55</v>
       </c>
       <c r="N37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">

--- a/computer organization/hardwired/输出信号表.xlsx
+++ b/computer organization/hardwired/输出信号表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\HomeWork\computer organization\hardwired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928572E-72CE-4EF1-BB97-8120DC53AD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82198050-0059-41CA-8CEC-57130D7ED4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12443" windowHeight="4568" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12443" windowHeight="4568" activeTab="2" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
   </bookViews>
   <sheets>
     <sheet name="输出信号一览" sheetId="1" r:id="rId1"/>
     <sheet name="组合逻辑译码表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
   <si>
     <t>SBUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,12 +385,159 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -398,8 +546,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,11 +1033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0739107-5A32-44E2-8FB0-BA045DEC7AFE}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1407,4 +1588,565 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742123CA-D59A-4FE5-85A9-6E36609D5B5A}">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>